--- a/src/test/resources/workbook/write/sunUser.xlsx
+++ b/src/test/resources/workbook/write/sunUser.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>用户管理</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>#{approvalStatus}</t>
-  </si>
-  <si>
-    <t>#{bankName}</t>
   </si>
   <si>
     <t>#{source}</t>
@@ -1054,12 +1051,12 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="33.75" customHeight="1" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="19.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="31.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="28" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.625" style="1" customWidth="1"/>
@@ -1124,19 +1121,17 @@
       <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
+    <mergeCell ref="E3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/test/resources/workbook/write/sunUser.xlsx
+++ b/src/test/resources/workbook/write/sunUser.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>用户管理</t>
+  </si>
+  <si>
+    <t>操作日期</t>
+  </si>
+  <si>
+    <t>${AXOLOTL_CREATE_DATE}</t>
+  </si>
+  <si>
+    <t>操作时间</t>
+  </si>
+  <si>
+    <t>${AXOLOTL_CREATE_TIME}</t>
+  </si>
+  <si>
+    <t>${name}</t>
+  </si>
+  <si>
+    <t>合计</t>
+  </si>
+  <si>
+    <t>&amp;{phone}</t>
   </si>
   <si>
     <t>用户名</t>
@@ -449,7 +470,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -461,6 +482,32 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -594,7 +641,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -606,34 +653,34 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -718,7 +765,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -727,6 +774,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1048,13 +1101,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="33.75" customHeight="1" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="33.75" customHeight="1" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="31.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
@@ -1089,49 +1142,74 @@
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:8">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="3" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/test/resources/workbook/write/sunUser.xlsx
+++ b/src/test/resources/workbook/write/sunUser.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>用户管理</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>#{createTime}</t>
+  </si>
+  <si>
+    <t>&amp;{approvalStatus}</t>
   </si>
 </sst>
 </file>
@@ -1101,13 +1104,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="33.75" customHeight="1" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="33.75" customHeight="1" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="31.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
@@ -1205,11 +1208,17 @@
         <v>22</v>
       </c>
     </row>
+    <row r="5" customHeight="1" spans="5:5">
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/test/resources/workbook/write/sunUser.xlsx
+++ b/src/test/resources/workbook/write/sunUser.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>用户管理</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>#{approvalStatus}</t>
+  </si>
+  <si>
+    <t>无</t>
   </si>
   <si>
     <t>#{source}</t>
@@ -768,7 +771,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -784,6 +787,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1107,7 +1113,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E5" sqref="E5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="33.75" customHeight="1" outlineLevelRow="4" outlineLevelCol="7"/>
@@ -1198,26 +1204,28 @@
       <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="F4" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="G4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="5:5">
       <c r="E5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/workbook/write/sunUser.xlsx
+++ b/src/test/resources/workbook/write/sunUser.xlsx
@@ -95,7 +95,7 @@
     <t>无</t>
   </si>
   <si>
-    <t>#{source}</t>
+    <t>#{source:数据迁移}</t>
   </si>
   <si>
     <t>#{createTime}</t>
@@ -1113,7 +1113,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:F5"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="33.75" customHeight="1" outlineLevelRow="4" outlineLevelCol="7"/>

--- a/src/test/resources/workbook/write/sunUser.xlsx
+++ b/src/test/resources/workbook/write/sunUser.xlsx
@@ -86,7 +86,7 @@
     <t>#{cardNumberDec}</t>
   </si>
   <si>
-    <t>#{phone}</t>
+    <t>#{phone1:未填写}</t>
   </si>
   <si>
     <t>#{approvalStatus}</t>
@@ -1113,7 +1113,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="33.75" customHeight="1" outlineLevelRow="4" outlineLevelCol="7"/>

--- a/src/test/resources/workbook/write/sunUser.xlsx
+++ b/src/test/resources/workbook/write/sunUser.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>用户管理</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>&amp;{approvalStatus}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1110,13 +1113,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="33.75" customHeight="1" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="33.75" customHeight="1" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="31.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
@@ -1222,6 +1225,11 @@
         <v>24</v>
       </c>
     </row>
+    <row r="7" customHeight="1" spans="3:3">
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:H1"/>

--- a/src/test/resources/workbook/write/sunUser.xlsx
+++ b/src/test/resources/workbook/write/sunUser.xlsx
@@ -50,7 +50,8 @@
     <t>合计</t>
   </si>
   <si>
-    <t>&amp;{phone}</t>
+    <t>&amp;{phone}
+添加时间</t>
   </si>
   <si>
     <t>用户名</t>
@@ -74,9 +75,6 @@
     <t>来源</t>
   </si>
   <si>
-    <t>添加时间</t>
-  </si>
-  <si>
     <t>#{username}</t>
   </si>
   <si>
@@ -105,6 +103,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>·</t>
   </si>
 </sst>
 </file>
@@ -479,7 +480,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -517,6 +518,17 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -526,6 +538,28 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -650,7 +684,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -662,34 +696,34 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -774,7 +808,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -791,8 +825,29 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1113,26 +1168,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="I2" sqref="I2:J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="33.75" customHeight="1" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="33.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="31.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="28" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="20.75" style="1"/>
+    <col min="5" max="6" width="15.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
+    <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1143,8 +1198,9 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
+      <c r="I1" s="10"/>
     </row>
-    <row r="2" customHeight="1" spans="1:8">
+    <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1158,17 +1214,19 @@
         <v>4</v>
       </c>
       <c r="E2" s="5"/>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="11" t="s">
         <v>7</v>
       </c>
+      <c r="J2" s="12"/>
     </row>
-    <row r="3" customHeight="1" spans="1:8">
+    <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -1178,63 +1236,71 @@
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="13"/>
+      <c r="J3" s="12"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:9">
+      <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="4" customHeight="1" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="1" t="s">
+    <row r="5" customHeight="1" spans="6:6">
+      <c r="F5" s="1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="5:5">
-      <c r="E5" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="3:3">
       <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="6:6">
+      <c r="F16" s="1" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="E5:F5"/>
+  <mergeCells count="6">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="I2:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/test/resources/workbook/write/sunUser.xlsx
+++ b/src/test/resources/workbook/write/sunUser.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>用户管理</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>&amp;{approvalStatus}</t>
+  </si>
+  <si>
+    <t>&amp;{source}</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -808,7 +811,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -823,12 +826,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1171,7 +1168,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:J3"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="33.75" customHeight="1"/>
@@ -1198,7 +1195,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="10"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="3" t="s">
@@ -1221,10 +1218,10 @@
       <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="12"/>
+      <c r="J2" s="10"/>
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="3" t="s">
@@ -1236,10 +1233,10 @@
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="6"/>
       <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
@@ -1249,8 +1246,8 @@
       <c r="H3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="12"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="10"/>
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="1" t="s">
@@ -1265,10 +1262,10 @@
       <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -1278,19 +1275,22 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="6:6">
+    <row r="5" customHeight="1" spans="6:8">
       <c r="F5" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="3:3">
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="6:6">
       <c r="F16" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
